--- a/config/excel/costLoot.xlsx
+++ b/config/excel/costLoot.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\go\src\github.com\east-eden\server\config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="CostLoot" sheetId="1" r:id="rId1"/>
+    <sheet name="CostLoot" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>行列头两行不会被读取</t>
+  </si>
   <si>
     <t>0-物品  1-货币 @@ -37,6 +32,27 @@
 御魂id</t>
   </si>
   <si>
+    <t>导出字段名</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>导出字段描述</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -52,16 +68,7 @@
     <t>数量</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Num</t>
+    <t>客户端导出字段类型</t>
   </si>
   <si>
     <t>int</t>
@@ -70,6 +77,21 @@
     <t>string</t>
   </si>
   <si>
+    <t>服务器导出字段类型</t>
+  </si>
+  <si>
+    <t>导出字段默认值</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>默认掉落描述</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>经验包子掉落100经验</t>
   </si>
   <si>
@@ -83,103 +105,41 @@
   </si>
   <si>
     <t>b御魂掉落</t>
-  </si>
-  <si>
-    <t>行列头两行不会被读取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认掉落描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Helvetica Neue"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -202,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -239,6 +199,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -258,6 +229,26 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -269,129 +260,95 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -517,7 +474,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -526,7 +483,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -609,7 +566,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -617,7 +574,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -636,7 +593,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +701,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +753,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +831,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,15 +844,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -910,7 +861,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -918,7 +869,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -937,7 +888,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,7 +1044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1119,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,15 +1135,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1206,7 +1151,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1225,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1463,7 +1408,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1476,260 +1421,264 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.67188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.67188" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="16.15" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="69" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="16.15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="16.15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="16.15" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="16.15" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C6" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="8">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+    <row r="7" ht="16.15" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="26.65" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="14.65" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
+    <row r="10" ht="15.2" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="11" ht="16.15" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="14">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="E11" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="16.15" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="14">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
+      <c r="D12" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.65" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.65" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="10">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="10">
-        <v>4</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="10">
-        <v>5</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5</v>
-      </c>
-      <c r="F11" s="13">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+    <row r="13" ht="16.15" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/costLoot.xlsx
+++ b/config/excel/costLoot.xlsx
@@ -80,10 +80,10 @@
     <t>服务器导出字段类型</t>
   </si>
   <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>default</t>
   </si>
   <si>
     <t>默认掉落描述</t>
@@ -1536,29 +1536,27 @@
         <v>18</v>
       </c>
       <c r="C6" t="s" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s" s="7">
         <v>17</v>
       </c>
       <c r="E6" t="s" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s" s="8">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="16.15" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s" s="7">
         <v>20</v>
       </c>
+      <c r="C7" s="7"/>
       <c r="D7" t="s" s="7">
         <v>21</v>
       </c>

--- a/config/excel/costLoot.xlsx
+++ b/config/excel/costLoot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -81,15 +81,6 @@
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
-  </si>
-  <si>
-    <t>默认掉落描述</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>经验包子掉落100经验</t>
@@ -1433,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1532,7 +1523,7 @@
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="9">
+      <c r="B6" t="s" s="10">
         <v>18</v>
       </c>
       <c r="C6" t="s" s="7">
@@ -1551,79 +1542,79 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="16.15" customHeight="1">
+    <row r="7" ht="26.65" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="3"/>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s" s="8">
-        <v>22</v>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>100</v>
       </c>
     </row>
-    <row r="8" ht="26.65" customHeight="1">
+    <row r="8" ht="14.65" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
-        <v>100</v>
+      <c r="G8" s="14">
+        <v>1000</v>
       </c>
     </row>
-    <row r="9" ht="14.65" customHeight="1">
+    <row r="9" ht="15.2" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="G9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1000</v>
-      </c>
     </row>
-    <row r="10" ht="15.2" customHeight="1">
+    <row r="10" ht="16.15" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
+        <v>23</v>
+      </c>
+      <c r="E10" s="14">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1631,48 +1622,29 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14">
+        <v>24</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="G11" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="16.15" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="14">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="E12" s="16">
-        <v>5</v>
-      </c>
-      <c r="F12" s="16">
-        <v>2</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="16.15" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/costLoot.xlsx
+++ b/config/excel/costLoot.xlsx
@@ -11,52 +11,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>0-物品 -1-货币 -2-英雄 -3-玩家属性 -4-异刃 -5-御魂</t>
+    <t>消耗与掉落id</t>
   </si>
   <si>
-    <t>物品typeid -货币类型（0-金币，1-钻石，2-荣誉） -英雄typeid -玩家属性类型（0-玩家经验） -异刃id -御魂id</t>
+    <t>0：物品 +1: 代币 +2: 英雄碎片</t>
+  </si>
+  <si>
+    <t>type=0时，参数为物品id +type=1时，参数为代币类型 +type=2时，参数为英雄id</t>
   </si>
   <si>
     <t>导出字段名</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>id</t>
   </si>
   <si>
-    <t>Desc</t>
+    <t>type</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>misc</t>
   </si>
   <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Num</t>
+    <t>num</t>
   </si>
   <si>
     <t>导出字段描述</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>描述</t>
   </si>
   <si>
     <t>类型</t>
@@ -68,34 +56,13 @@
     <t>数量</t>
   </si>
   <si>
-    <t>客户端导出字段类型</t>
+    <t>字段控制</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>服务器导出字段类型</t>
+    <t>导出字段类型</t>
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>经验包子掉落100经验</t>
-  </si>
-  <si>
-    <t>新春礼包掉落1000金币</t>
-  </si>
-  <si>
-    <t>霜之哀伤掉落</t>
-  </si>
-  <si>
-    <t>梅林掉落</t>
-  </si>
-  <si>
-    <t>b御魂掉落</t>
   </si>
 </sst>
 </file>
@@ -105,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,11 +87,6 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
     </font>
     <font>
       <b val="1"/>
@@ -197,14 +159,9 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -220,7 +177,9 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -229,7 +188,9 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
@@ -237,13 +198,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -255,7 +227,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -268,50 +240,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,23 +1378,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.67188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.8516" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.67188" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.15" customHeight="1">
+    <row r="1" ht="14" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1449,202 +1402,132 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="69" customHeight="1">
+    <row r="2" ht="47" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" t="s" s="5">
+      <c r="C2" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="D2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="E2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="16.15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s" s="7">
+      <c r="B3" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="C3" t="s" s="6">
+        <v>5</v>
+      </c>
       <c r="D3" t="s" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="9">
+      <c r="B4" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="E4" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="F4" t="s" s="7">
         <v>12</v>
-      </c>
-      <c r="F4" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="8">
-        <v>14</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>17</v>
-      </c>
+      <c r="B5" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="7">
-        <v>19</v>
+      <c r="B6" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>15</v>
       </c>
       <c r="D6" t="s" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s" s="8">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="7" ht="26.65" customHeight="1">
+    <row r="7" ht="25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="E7" s="13">
-        <v>3</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="G7" s="11">
-        <v>100</v>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.65" customHeight="1">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1000</v>
+      <c r="F8" s="9">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15.2" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="14">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>2</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
+    <row r="9" ht="16.15" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="16.15" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="14">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="16.15" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="14">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="E11" s="16">
-        <v>5</v>
-      </c>
-      <c r="F11" s="16">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="16.15" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+    <row r="10" ht="14" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/costLoot.xlsx
+++ b/config/excel/costLoot.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
-    <sheet name="CostLoot" sheetId="1" r:id="rId4"/>
+    <sheet name="CostLoot" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -20,13 +23,21 @@
   </si>
   <si>
     <t>0：物品 +
 1: 代币 -2: 英雄碎片</t>
+
+2: 英雄 
+3: 玩家经验 
+4: 英雄碎片</t>
   </si>
   <si>
     <t>type=0时，参数为物品id +
 type=1时，参数为代币类型 -type=2时，参数为英雄id</t>
+
+type=2时，参数为英雄id
+type=3时，参数无意义
+type=4时，参数为英雄id</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -69,33 +80,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,17 +262,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -221,79 +564,400 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -419,7 +1083,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -428,7 +1092,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -437,7 +1101,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -511,13 +1175,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -537,8 +1200,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -550,7 +1212,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -567,8 +1229,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -593,8 +1254,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,8 +1279,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -645,8 +1304,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -671,8 +1329,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,8 +1354,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,8 +1379,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,8 +1404,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,8 +1429,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,9 +1442,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -806,13 +1465,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -832,8 +1490,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -858,8 +1515,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,8 +1540,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,8 +1565,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,8 +1590,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,8 +1615,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,8 +1640,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,8 +1665,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,8 +1690,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,8 +1715,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,9 +1728,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1093,8 +1747,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1114,8 +1766,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1127,7 +1778,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1144,8 +1795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,8 +1820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,8 +1845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,8 +1870,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,8 +1895,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,8 +1920,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,8 +1945,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,8 +1970,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,8 +1995,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,9 +2008,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1377,24 +2025,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3557692307692" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6153846153846" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.8461538461538" style="1" customWidth="1"/>
+    <col min="5" max="5" width="82.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3557692307692" style="1" customWidth="1"/>
     <col min="7" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="14" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1403,135 +2054,143 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1">
+    <row r="2" ht="84" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" ht="16.15" customHeight="1">
+    <row r="3" ht="16.15" customHeight="1" spans="1:6">
       <c r="A3" s="3"/>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1">
+    <row r="4" ht="16.15" customHeight="1" spans="1:6">
       <c r="A4" s="3"/>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="7">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s" s="7">
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1">
+    <row r="5" ht="16.15" customHeight="1" spans="1:6">
       <c r="A5" s="3"/>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1">
+    <row r="6" ht="16.15" customHeight="1" spans="1:6">
       <c r="A6" s="3"/>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="6">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s" s="7">
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1">
+    <row r="7" ht="25" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1">
+    <row r="8" ht="25" customHeight="1" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
+      <c r="E8" s="10">
         <v>1</v>
       </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" ht="16.15" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" ht="14" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+    <row r="10" ht="14" customHeight="1" spans="1:6">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/costLoot.xlsx
+++ b/config/excel/costLoot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>0,0,4</t>
+  </si>
+  <si>
+    <t>999,1000,20</t>
   </si>
 </sst>
 </file>
@@ -458,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -525,19 +540,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -674,7 +676,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,7 +709,7 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,19 +727,19 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,7 +775,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,13 +793,13 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,11 +808,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -822,11 +824,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2027,20 +2028,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.3557692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3557692307692" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6153846153846" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.8461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="82.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3557692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.9230769230769" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7692307692308" style="1" customWidth="1"/>
     <col min="7" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2123,70 +2124,40 @@
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="10">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="14" customHeight="1" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+    <row r="8" ht="14" customHeight="1" spans="1:6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/excel/costLoot.xlsx
+++ b/config/excel/costLoot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -31,6 +31,9 @@
 4: 英雄碎片</t>
   </si>
   <si>
+    <t>此列由前5列自动生成，不用填写</t>
+  </si>
+  <si>
     <t>type=0时，参数为物品id  
 type=1时，参数为代币类型 @@ -58,10 +61,55 @@
     <t>导出字段描述</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>参数</t>
+    <t>类型1</t>
+  </si>
+  <si>
+    <t>类型2</t>
+  </si>
+  <si>
+    <t>类型3</t>
+  </si>
+  <si>
+    <t>类型4</t>
+  </si>
+  <si>
+    <t>类型5</t>
+  </si>
+  <si>
+    <t>消耗和掉落类型</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>消耗和掉落参数</t>
+  </si>
+  <si>
+    <t>数量1</t>
+  </si>
+  <si>
+    <t>数量2</t>
+  </si>
+  <si>
+    <t>数量3</t>
+  </si>
+  <si>
+    <t>数量4</t>
+  </si>
+  <si>
+    <t>数量5</t>
   </si>
   <si>
     <t>数量</t>
@@ -74,6 +122,12 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>测试数据</t>
   </si>
 </sst>
 </file>
@@ -86,7 +140,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -97,6 +151,11 @@
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -252,7 +311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -529,38 +594,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,152 +708,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -822,11 +865,12 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2027,24 +2071,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="14.3557692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3557692307692" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6153846153846" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.8461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="82.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3557692307692" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5384615384615" style="1" customWidth="1"/>
+    <col min="5" max="8" width="6.30769230769231" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9230769230769" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.9230769230769" style="1" customWidth="1"/>
+    <col min="11" max="14" width="6.30769230769231" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.9230769230769" style="1" customWidth="1"/>
+    <col min="16" max="20" width="6.30769230769231" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25.9615384615385" style="1" customWidth="1"/>
+    <col min="22" max="16383" width="6" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:6">
+    <row r="1" ht="14" customHeight="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2053,8 +2103,23 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" ht="84" spans="1:6">
+    <row r="2" ht="84" spans="1:21">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -2063,78 +2128,191 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:6">
+    <row r="3" ht="16.15" customHeight="1" spans="1:21">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:6">
+    <row r="4" ht="16.15" customHeight="1" spans="1:21">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:6">
+    <row r="5" ht="16.15" customHeight="1" spans="1:21">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="11"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:6">
+    <row r="6" ht="16.15" customHeight="1" spans="1:21">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:6">
+    <row r="7" ht="25" customHeight="1" spans="1:21">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
@@ -2145,48 +2323,56 @@
         <v>1</v>
       </c>
       <c r="F7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f>D7&amp;","&amp;E7&amp;","&amp;F7&amp;","&amp;G7&amp;","&amp;H7</f>
+        <v>0,1,-1,-1,-1</v>
+      </c>
+      <c r="J7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="10">
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f>J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
+        <v>1,0,-1,-1,-1</v>
+      </c>
+      <c r="P7" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="10">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10">
-        <v>4</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="14" customHeight="1" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="Q7" s="9">
+        <v>999</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f>P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7</f>
+        <v>2,999,0,0,0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
